--- a/pw3/pw3-Приведение таблиц.xlsx
+++ b/pw3/pw3-Приведение таблиц.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
     <sheet name="reduction" sheetId="2" r:id="rId2"/>
+    <sheet name="description" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>Библиотечный фонд</t>
   </si>
@@ -395,6 +396,75 @@
   </si>
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t>Наименование атрибута</t>
+  </si>
+  <si>
+    <t>Сущность</t>
+  </si>
+  <si>
+    <t>Тип атрибута</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>PK, autoincrement, not null</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>id (Идентификатор издания)</t>
+  </si>
+  <si>
+    <t>title (наименование издания)</t>
+  </si>
+  <si>
+    <t>repository (Библиотечный фонд)</t>
+  </si>
+  <si>
+    <t>genre (жанр)</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>binding (вид переплета)</t>
+  </si>
+  <si>
+    <t>year (год издания)</t>
+  </si>
+  <si>
+    <t>publishers_id(издательство)</t>
+  </si>
+  <si>
+    <t>instances (количество)</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>authors (Авторы)</t>
+  </si>
+  <si>
+    <t>id (Идентификатор автора)</t>
+  </si>
+  <si>
+    <t>fio (ФИО автора)</t>
+  </si>
+  <si>
+    <t>country (страна рождения)</t>
+  </si>
+  <si>
+    <t>CHECK (жесткий, мягкий)</t>
+  </si>
+  <si>
+    <t>FK (для связи с genres - жанры)</t>
+  </si>
+  <si>
+    <t>CHECK значение &lt;  currentDate</t>
   </si>
 </sst>
 </file>
@@ -492,7 +562,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,9 +578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,7 +618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -620,7 +690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +843,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1144,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2056,4 +2126,187 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pw3/pw3-Приведение таблиц.xlsx
+++ b/pw3/pw3-Приведение таблиц.xlsx
@@ -11,6 +11,9 @@
     <sheet name="reduction" sheetId="2" r:id="rId2"/>
     <sheet name="description" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">description!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="212">
   <si>
     <t>Библиотечный фонд</t>
   </si>
@@ -389,9 +392,6 @@
     <t>Очередь на получение издания</t>
   </si>
   <si>
-    <t>id-бронирования</t>
-  </si>
-  <si>
     <t>bibliography</t>
   </si>
   <si>
@@ -410,9 +410,6 @@
     <t>Ограничения</t>
   </si>
   <si>
-    <t>PK, autoincrement, not null</t>
-  </si>
-  <si>
     <t>not null</t>
   </si>
   <si>
@@ -425,15 +422,9 @@
     <t>repository (Библиотечный фонд)</t>
   </si>
   <si>
-    <t>genre (жанр)</t>
-  </si>
-  <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>binding (вид переплета)</t>
-  </si>
-  <si>
     <t>year (год издания)</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>instances (количество)</t>
   </si>
   <si>
-    <t>&gt;0</t>
-  </si>
-  <si>
     <t>authors (Авторы)</t>
   </si>
   <si>
@@ -458,20 +446,227 @@
     <t>country (страна рождения)</t>
   </si>
   <si>
-    <t>CHECK (жесткий, мягкий)</t>
-  </si>
-  <si>
     <t>FK (для связи с genres - жанры)</t>
   </si>
   <si>
     <t>CHECK значение &lt;  currentDate</t>
+  </si>
+  <si>
+    <t>FK для связи с publishers - издательства</t>
+  </si>
+  <si>
+    <t>CHECK значение &gt;=0</t>
+  </si>
+  <si>
+    <t>barcodes (Штрихкоды)</t>
+  </si>
+  <si>
+    <t>id (Идентификатор книги)</t>
+  </si>
+  <si>
+    <t>AK, unique, not null</t>
+  </si>
+  <si>
+    <t>repository_id(идентификатор издания)</t>
+  </si>
+  <si>
+    <t>FK для связи с repository - издание</t>
+  </si>
+  <si>
+    <t>AK, unique, not null, CHECK (должен удовлетворять шаблону '000-000-000-000'</t>
+  </si>
+  <si>
+    <t>binding_id (вид переплета)</t>
+  </si>
+  <si>
+    <t>FK для связи с bindings - переплеты</t>
+  </si>
+  <si>
+    <t>bindings (Виды переплетов)</t>
+  </si>
+  <si>
+    <t>id (Идентификатор переплета)</t>
+  </si>
+  <si>
+    <t>type(Тип переплета)</t>
+  </si>
+  <si>
+    <t>bibliography (Библиография)</t>
+  </si>
+  <si>
+    <t>authors_id(идентификатор автора)</t>
+  </si>
+  <si>
+    <t>FK для связи с authors - авторы</t>
+  </si>
+  <si>
+    <t>genres (Жанры)</t>
+  </si>
+  <si>
+    <t>id(Идентификатор жанра)</t>
+  </si>
+  <si>
+    <t>genres_id (жанр)</t>
+  </si>
+  <si>
+    <t>value (жанр)</t>
+  </si>
+  <si>
+    <t>value(штрихкод)</t>
+  </si>
+  <si>
+    <t>publishers (Издатели)</t>
+  </si>
+  <si>
+    <t>id (Идентификатор издателя)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>contactname</t>
+  </si>
+  <si>
+    <t>name (Наименование издателя)</t>
+  </si>
+  <si>
+    <t>accounts(Карточки читателей)</t>
+  </si>
+  <si>
+    <t>phone (телефон)</t>
+  </si>
+  <si>
+    <t>address (адрес)</t>
+  </si>
+  <si>
+    <t>fname (имя)</t>
+  </si>
+  <si>
+    <t>sname (отчество)</t>
+  </si>
+  <si>
+    <t>lname (фамилия)</t>
+  </si>
+  <si>
+    <t>id (идентификатор читателя)</t>
+  </si>
+  <si>
+    <t>CHECK (11 цифр)</t>
+  </si>
+  <si>
+    <t>pasport_id (паспорт)</t>
+  </si>
+  <si>
+    <t>FK для связи с pasports</t>
+  </si>
+  <si>
+    <t>sertificate_id (свидетельство о рождении)</t>
+  </si>
+  <si>
+    <t>FK для связи с sertificates</t>
+  </si>
+  <si>
+    <t>CHECK (только буквенные значения)</t>
+  </si>
+  <si>
+    <t>pasports (Паспорта)</t>
+  </si>
+  <si>
+    <t>id(Идентификатор паспорта)</t>
+  </si>
+  <si>
+    <t>serial(серия)</t>
+  </si>
+  <si>
+    <t>number (номер)</t>
+  </si>
+  <si>
+    <t>sertificates (Свидетельства о рождении)</t>
+  </si>
+  <si>
+    <t>id(Идентификатор свидетельства)</t>
+  </si>
+  <si>
+    <t>allocation (Выдача книг)</t>
+  </si>
+  <si>
+    <t>id (Идентификатор записи)</t>
+  </si>
+  <si>
+    <t>book_out (Дата выдачи)</t>
+  </si>
+  <si>
+    <t>book_in(Планируемая дата возврата)</t>
+  </si>
+  <si>
+    <t>book_in_fact (Фактическая дата возврата)</t>
+  </si>
+  <si>
+    <t>penalty (Размер штрафа)</t>
+  </si>
+  <si>
+    <t>late (Период задержки возврата)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>booking(Бронирование)</t>
+  </si>
+  <si>
+    <t>date(дата бронирования)</t>
+  </si>
+  <si>
+    <t>FK для связи с repository - издание, not null</t>
+  </si>
+  <si>
+    <t>CHECK ( &gt;= 0), null</t>
+  </si>
+  <si>
+    <t>currentDate или null</t>
+  </si>
+  <si>
+    <t>(если дата выдачи=null, тогда null), или date&gt; currentDate</t>
+  </si>
+  <si>
+    <t>id(Идентификатор записи)</t>
+  </si>
+  <si>
+    <t>FK для связи с перечнем Изданий</t>
+  </si>
+  <si>
+    <t>currentDate</t>
+  </si>
+  <si>
+    <t>Штрихкод</t>
+  </si>
+  <si>
+    <t>id-книги</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AK, unique, not null, CHECK (жесткий, мягкий)</t>
+  </si>
+  <si>
+    <t>AK, unique, not null, CHECK (только буквы и пробелы)</t>
+  </si>
+  <si>
+    <t>AK/2, CHECK (4 цифры)</t>
+  </si>
+  <si>
+    <t>AK/2, CHECK (6 цифр)</t>
+  </si>
+  <si>
+    <t>AK/2, CHECK (паттерн '---------')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +702,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -550,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,6 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1214,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1467,7 +1672,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>104</v>
@@ -1920,7 +2125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
@@ -1928,7 +2133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -1948,13 +2153,10 @@
         <v>61</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>1</v>
       </c>
@@ -1974,13 +2176,10 @@
         <v>71</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>2</v>
       </c>
@@ -1996,9 +2195,8 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>3</v>
       </c>
@@ -2014,9 +2212,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2038,21 +2235,18 @@
       <c r="G56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H57" s="1" t="s">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
@@ -2060,7 +2254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -2082,7 +2276,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -2093,7 +2287,7 @@
         <v>44632</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -2130,183 +2324,706 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
         <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
         <v>100</v>
       </c>
+      <c r="D21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>